--- a/practices/Learning_Objectives_Exercices.xlsx
+++ b/practices/Learning_Objectives_Exercices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11628" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="201">
   <si>
     <t>Define the concepts of Variable.</t>
   </si>
@@ -652,6 +652,12 @@
   </si>
   <si>
     <t>ARAssotllo</t>
+  </si>
+  <si>
+    <t>PRACTICE 3.</t>
+  </si>
+  <si>
+    <t>PRACTICE 2. Input / Output</t>
   </si>
 </sst>
 </file>
@@ -2261,108 +2267,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2377,6 +2281,108 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2661,39 +2667,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="282" t="s">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="248" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="283" t="s">
+      <c r="B3" s="249" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="283" t="s">
+      <c r="C3" s="249" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="284" t="s">
+      <c r="D3" s="250" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="285" t="s">
+      <c r="E3" s="251" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="97">
         <v>1</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="106">
         <v>2</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="102">
         <v>3</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="53">
         <v>4</v>
       </c>
@@ -2761,7 +2767,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>5</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="53">
         <v>6</v>
       </c>
@@ -2795,7 +2801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>7</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="53">
         <v>8</v>
       </c>
@@ -2829,7 +2835,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>9</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="53">
         <v>10</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>11</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="53">
         <v>12</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>13</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="53">
         <v>14</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>15</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="53">
         <v>16</v>
       </c>
@@ -2972,7 +2978,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>17</v>
       </c>
@@ -2996,7 +3002,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="53">
         <v>18</v>
       </c>
@@ -3020,7 +3026,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>19</v>
       </c>
@@ -3044,7 +3050,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="53">
         <v>20</v>
       </c>
@@ -3068,7 +3074,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>21</v>
       </c>
@@ -3092,7 +3098,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="53">
         <v>22</v>
       </c>
@@ -3116,7 +3122,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>24</v>
       </c>
@@ -3140,7 +3146,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="53">
         <v>25</v>
       </c>
@@ -3164,7 +3170,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>26</v>
       </c>
@@ -3188,7 +3194,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="53">
         <v>27</v>
       </c>
@@ -3212,7 +3218,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>28</v>
       </c>
@@ -3236,7 +3242,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="54">
         <v>29</v>
       </c>
@@ -3246,10 +3252,10 @@
       <c r="C31" s="218" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="280">
+      <c r="D31" s="246">
         <v>1</v>
       </c>
-      <c r="E31" s="281" t="s">
+      <c r="E31" s="247" t="s">
         <v>101</v>
       </c>
       <c r="G31" s="11"/>
@@ -3260,7 +3266,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3288,30 +3294,30 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="246" t="s">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="248"/>
-      <c r="I2" s="246" t="s">
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="252" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="247"/>
-      <c r="K2" s="247"/>
-      <c r="L2" s="247"/>
-      <c r="M2" s="248"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="254"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="78" t="s">
         <v>6</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="98" t="s">
         <v>96</v>
       </c>
@@ -3394,52 +3400,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="144.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="126.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="21" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="126.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="21" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="252" t="s">
+    <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="246" t="s">
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="249" t="s">
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="255" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="249" t="s">
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="257"/>
+      <c r="P3" s="255" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="250"/>
-      <c r="S3" s="250"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="251"/>
-    </row>
-    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="256"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="256"/>
+      <c r="T3" s="256"/>
+      <c r="U3" s="257"/>
+    </row>
+    <row r="4" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="48" t="s">
         <v>77</v>
       </c>
@@ -3495,11 +3501,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="257" t="s">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="259" t="s">
+      <c r="C5" s="265" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -3545,9 +3551,9 @@
       <c r="T5" s="2"/>
       <c r="U5" s="217"/>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="258"/>
-      <c r="C6" s="260"/>
+    <row r="6" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="264"/>
+      <c r="C6" s="266"/>
       <c r="D6" s="50" t="s">
         <v>57</v>
       </c>
@@ -3591,11 +3597,11 @@
       <c r="T6" s="11"/>
       <c r="U6" s="95"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="257" t="s">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="263" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="265" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="49" t="s">
@@ -3641,9 +3647,9 @@
       <c r="T7" s="2"/>
       <c r="U7" s="217"/>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="258"/>
-      <c r="C8" s="260"/>
+    <row r="8" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="264"/>
+      <c r="C8" s="266"/>
       <c r="D8" s="50" t="s">
         <v>59</v>
       </c>
@@ -3687,11 +3693,11 @@
       <c r="T8" s="5"/>
       <c r="U8" s="201"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="257" t="s">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="263" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="259" t="s">
+      <c r="C9" s="265" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="49" t="s">
@@ -3737,9 +3743,9 @@
       <c r="T9" s="11"/>
       <c r="U9" s="95"/>
     </row>
-    <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="269"/>
-      <c r="C10" s="270"/>
+    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="275"/>
+      <c r="C10" s="276"/>
       <c r="D10" s="50" t="s">
         <v>61</v>
       </c>
@@ -3783,7 +3789,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="95"/>
     </row>
-    <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="130" t="s">
         <v>49</v>
       </c>
@@ -3833,11 +3839,11 @@
       <c r="T11" s="83"/>
       <c r="U11" s="84"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="261" t="s">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="259" t="s">
+      <c r="C12" s="265" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -3883,9 +3889,9 @@
       <c r="T12" s="11"/>
       <c r="U12" s="95"/>
     </row>
-    <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="262"/>
-      <c r="C13" s="260"/>
+    <row r="13" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="268"/>
+      <c r="C13" s="266"/>
       <c r="D13" s="50" t="s">
         <v>64</v>
       </c>
@@ -3929,11 +3935,11 @@
       <c r="T13" s="11"/>
       <c r="U13" s="95"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="261" t="s">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="263" t="s">
+      <c r="C14" s="269" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="51" t="s">
@@ -3979,9 +3985,9 @@
       <c r="T14" s="2"/>
       <c r="U14" s="217"/>
     </row>
-    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="262"/>
-      <c r="C15" s="264"/>
+    <row r="15" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="268"/>
+      <c r="C15" s="270"/>
       <c r="D15" s="51" t="s">
         <v>66</v>
       </c>
@@ -4025,11 +4031,11 @@
       <c r="T15" s="5"/>
       <c r="U15" s="201"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="261" t="s">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="267" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="259" t="s">
+      <c r="C16" s="265" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="49" t="s">
@@ -4075,9 +4081,9 @@
       <c r="T16" s="11"/>
       <c r="U16" s="95"/>
     </row>
-    <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="262"/>
-      <c r="C17" s="260"/>
+    <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="268"/>
+      <c r="C17" s="266"/>
       <c r="D17" s="50" t="s">
         <v>68</v>
       </c>
@@ -4121,13 +4127,13 @@
       <c r="T17" s="11"/>
       <c r="U17" s="95"/>
     </row>
-    <row r="18" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="252" t="s">
+    <row r="18" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="253"/>
-      <c r="D18" s="255"/>
-      <c r="E18" s="256"/>
+      <c r="C18" s="259"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="262"/>
       <c r="F18" s="75" t="s">
         <v>6</v>
       </c>
@@ -4177,11 +4183,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="257" t="s">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="263" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="265" t="s">
+      <c r="C19" s="271" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="52" t="s">
@@ -4227,9 +4233,9 @@
       <c r="T19" s="2"/>
       <c r="U19" s="217"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="269"/>
-      <c r="C20" s="266"/>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="275"/>
+      <c r="C20" s="272"/>
       <c r="D20" s="53" t="s">
         <v>70</v>
       </c>
@@ -4273,9 +4279,9 @@
       <c r="T20" s="11"/>
       <c r="U20" s="95"/>
     </row>
-    <row r="21" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="258"/>
-      <c r="C21" s="267"/>
+    <row r="21" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="264"/>
+      <c r="C21" s="273"/>
       <c r="D21" s="54" t="s">
         <v>71</v>
       </c>
@@ -4319,11 +4325,11 @@
       <c r="T21" s="5"/>
       <c r="U21" s="201"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="257" t="s">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="263" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="263" t="s">
+      <c r="C22" s="269" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="52" t="s">
@@ -4369,9 +4375,9 @@
       <c r="T22" s="2"/>
       <c r="U22" s="217"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="269"/>
-      <c r="C23" s="268"/>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23" s="275"/>
+      <c r="C23" s="274"/>
       <c r="D23" s="53" t="s">
         <v>83</v>
       </c>
@@ -4415,9 +4421,9 @@
       <c r="T23" s="11"/>
       <c r="U23" s="95"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="269"/>
-      <c r="C24" s="268"/>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="275"/>
+      <c r="C24" s="274"/>
       <c r="D24" s="53" t="s">
         <v>84</v>
       </c>
@@ -4461,9 +4467,9 @@
       <c r="T24" s="11"/>
       <c r="U24" s="95"/>
     </row>
-    <row r="25" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="258"/>
-      <c r="C25" s="264"/>
+    <row r="25" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="264"/>
+      <c r="C25" s="270"/>
       <c r="D25" s="54" t="s">
         <v>72</v>
       </c>
@@ -4507,7 +4513,7 @@
       <c r="T25" s="5"/>
       <c r="U25" s="201"/>
     </row>
-    <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="130" t="s">
         <v>54</v>
       </c>
@@ -4557,11 +4563,11 @@
       <c r="T26" s="83"/>
       <c r="U26" s="84"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="257" t="s">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27" s="263" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="259" t="s">
+      <c r="C27" s="265" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="59" t="s">
@@ -4607,9 +4613,9 @@
       <c r="T27" s="2"/>
       <c r="U27" s="217"/>
     </row>
-    <row r="28" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="258"/>
-      <c r="C28" s="260"/>
+    <row r="28" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="264"/>
+      <c r="C28" s="266"/>
       <c r="D28" s="61" t="s">
         <v>94</v>
       </c>
@@ -4653,13 +4659,13 @@
       <c r="T28" s="11"/>
       <c r="U28" s="95"/>
     </row>
-    <row r="29" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="252" t="s">
+    <row r="29" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="258" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="253"/>
-      <c r="D29" s="255"/>
-      <c r="E29" s="256"/>
+      <c r="C29" s="259"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="262"/>
       <c r="F29" s="75" t="s">
         <v>6</v>
       </c>
@@ -4709,11 +4715,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="257" t="s">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B30" s="263" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="259" t="s">
+      <c r="C30" s="265" t="s">
         <v>156</v>
       </c>
       <c r="D30" s="52" t="s">
@@ -4759,9 +4765,9 @@
       <c r="T30" s="2"/>
       <c r="U30" s="217"/>
     </row>
-    <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="258"/>
-      <c r="C31" s="260"/>
+    <row r="31" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="264"/>
+      <c r="C31" s="266"/>
       <c r="D31" s="54" t="s">
         <v>127</v>
       </c>
@@ -4805,11 +4811,11 @@
       <c r="T31" s="5"/>
       <c r="U31" s="201"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="257" t="s">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B32" s="263" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="263" t="s">
+      <c r="C32" s="269" t="s">
         <v>128</v>
       </c>
       <c r="D32" s="52" t="s">
@@ -4855,9 +4861,9 @@
       <c r="T32" s="2"/>
       <c r="U32" s="217"/>
     </row>
-    <row r="33" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="269"/>
-      <c r="C33" s="268"/>
+    <row r="33" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="275"/>
+      <c r="C33" s="274"/>
       <c r="D33" s="53" t="s">
         <v>134</v>
       </c>
@@ -4901,9 +4907,9 @@
       <c r="T33" s="11"/>
       <c r="U33" s="95"/>
     </row>
-    <row r="34" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="269"/>
-      <c r="C34" s="268"/>
+    <row r="34" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="275"/>
+      <c r="C34" s="274"/>
       <c r="D34" s="53" t="s">
         <v>135</v>
       </c>
@@ -4947,9 +4953,9 @@
       <c r="T34" s="11"/>
       <c r="U34" s="95"/>
     </row>
-    <row r="35" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="258"/>
-      <c r="C35" s="264"/>
+    <row r="35" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="264"/>
+      <c r="C35" s="270"/>
       <c r="D35" s="54" t="s">
         <v>136</v>
       </c>
@@ -4993,11 +4999,11 @@
       <c r="T35" s="5"/>
       <c r="U35" s="201"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="257" t="s">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B36" s="263" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="263" t="s">
+      <c r="C36" s="269" t="s">
         <v>164</v>
       </c>
       <c r="D36" s="52" t="s">
@@ -5043,9 +5049,9 @@
       <c r="T36" s="2"/>
       <c r="U36" s="217"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="269"/>
-      <c r="C37" s="268"/>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B37" s="275"/>
+      <c r="C37" s="274"/>
       <c r="D37" s="53" t="s">
         <v>138</v>
       </c>
@@ -5089,9 +5095,9 @@
       <c r="T37" s="11"/>
       <c r="U37" s="95"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="269"/>
-      <c r="C38" s="268"/>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B38" s="275"/>
+      <c r="C38" s="274"/>
       <c r="D38" s="53" t="s">
         <v>139</v>
       </c>
@@ -5135,9 +5141,9 @@
       <c r="T38" s="11"/>
       <c r="U38" s="95"/>
     </row>
-    <row r="39" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="258"/>
-      <c r="C39" s="264"/>
+    <row r="39" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="264"/>
+      <c r="C39" s="270"/>
       <c r="D39" s="54" t="s">
         <v>140</v>
       </c>
@@ -5181,11 +5187,11 @@
       <c r="T39" s="5"/>
       <c r="U39" s="201"/>
     </row>
-    <row r="40" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="257" t="s">
+    <row r="40" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="263" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="263" t="s">
+      <c r="C40" s="269" t="s">
         <v>157</v>
       </c>
       <c r="D40" s="78" t="s">
@@ -5231,9 +5237,9 @@
       <c r="T40" s="11"/>
       <c r="U40" s="95"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="269"/>
-      <c r="C41" s="268"/>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B41" s="275"/>
+      <c r="C41" s="274"/>
       <c r="D41" s="81" t="s">
         <v>149</v>
       </c>
@@ -5277,9 +5283,9 @@
       <c r="T41" s="11"/>
       <c r="U41" s="95"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="269"/>
-      <c r="C42" s="268"/>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B42" s="275"/>
+      <c r="C42" s="274"/>
       <c r="D42" s="81" t="s">
         <v>150</v>
       </c>
@@ -5323,9 +5329,9 @@
       <c r="T42" s="11"/>
       <c r="U42" s="95"/>
     </row>
-    <row r="43" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="258"/>
-      <c r="C43" s="264"/>
+    <row r="43" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="264"/>
+      <c r="C43" s="270"/>
       <c r="D43" s="16" t="s">
         <v>152</v>
       </c>
@@ -5369,13 +5375,13 @@
       <c r="T43" s="11"/>
       <c r="U43" s="95"/>
     </row>
-    <row r="44" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="252" t="s">
+    <row r="44" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="258" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="253"/>
-      <c r="D44" s="255"/>
-      <c r="E44" s="256"/>
+      <c r="C44" s="259"/>
+      <c r="D44" s="261"/>
+      <c r="E44" s="262"/>
       <c r="F44" s="219" t="s">
         <v>6</v>
       </c>
@@ -5425,49 +5431,49 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D45"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D46"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D47"/>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D48"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D49"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>158</v>
       </c>
       <c r="D50"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>159</v>
       </c>
       <c r="D51"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>160</v>
       </c>
       <c r="D52"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>161</v>
       </c>
       <c r="D53"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -5479,18 +5485,18 @@
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="C36:C39"/>
     <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C40:C43"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="P3:U3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="B3:E3"/>
@@ -5521,249 +5527,249 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.5703125" customWidth="1"/>
-    <col min="29" max="30" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5703125" customWidth="1"/>
-    <col min="35" max="35" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="42" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.5703125" customWidth="1"/>
-    <col min="47" max="47" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="7.5703125" customWidth="1"/>
-    <col min="56" max="57" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.5546875" customWidth="1"/>
+    <col min="29" max="30" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5546875" customWidth="1"/>
+    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.5546875" customWidth="1"/>
+    <col min="47" max="47" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="7.5546875" customWidth="1"/>
+    <col min="56" max="57" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="271" t="s">
+    <row r="1" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="272"/>
-      <c r="O2" s="272"/>
-      <c r="P2" s="272"/>
-      <c r="Q2" s="272"/>
-      <c r="R2" s="272"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="272"/>
-      <c r="U2" s="272"/>
-      <c r="V2" s="272"/>
-      <c r="W2" s="272"/>
-      <c r="X2" s="272"/>
-      <c r="Y2" s="272"/>
-      <c r="Z2" s="272"/>
-      <c r="AA2" s="272"/>
-      <c r="AB2" s="272"/>
-      <c r="AC2" s="272"/>
-      <c r="AD2" s="272"/>
-      <c r="AE2" s="272"/>
-      <c r="AF2" s="272"/>
-      <c r="AG2" s="272"/>
-      <c r="AH2" s="272"/>
-      <c r="AI2" s="272"/>
-      <c r="AJ2" s="272"/>
-      <c r="AK2" s="272"/>
-      <c r="AL2" s="272"/>
-      <c r="AM2" s="272"/>
-      <c r="AN2" s="272"/>
-      <c r="AO2" s="272"/>
-      <c r="AP2" s="272"/>
-      <c r="AQ2" s="272"/>
-      <c r="AR2" s="272"/>
-      <c r="AS2" s="272"/>
-      <c r="AT2" s="272"/>
-      <c r="AU2" s="272"/>
-      <c r="AV2" s="272"/>
-      <c r="AW2" s="272"/>
-      <c r="AX2" s="272"/>
-      <c r="AY2" s="272"/>
-      <c r="AZ2" s="272"/>
-      <c r="BA2" s="272"/>
-      <c r="BB2" s="272"/>
-      <c r="BC2" s="272"/>
-      <c r="BD2" s="272"/>
-      <c r="BE2" s="272"/>
-      <c r="BF2" s="272"/>
-      <c r="BG2" s="272"/>
-      <c r="BH2" s="272"/>
-      <c r="BI2" s="272"/>
-      <c r="BJ2" s="273"/>
-    </row>
-    <row r="3" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="271" t="s">
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
+      <c r="R2" s="278"/>
+      <c r="S2" s="278"/>
+      <c r="T2" s="278"/>
+      <c r="U2" s="278"/>
+      <c r="V2" s="278"/>
+      <c r="W2" s="278"/>
+      <c r="X2" s="278"/>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="278"/>
+      <c r="AA2" s="278"/>
+      <c r="AB2" s="278"/>
+      <c r="AC2" s="278"/>
+      <c r="AD2" s="278"/>
+      <c r="AE2" s="278"/>
+      <c r="AF2" s="278"/>
+      <c r="AG2" s="278"/>
+      <c r="AH2" s="278"/>
+      <c r="AI2" s="278"/>
+      <c r="AJ2" s="278"/>
+      <c r="AK2" s="278"/>
+      <c r="AL2" s="278"/>
+      <c r="AM2" s="278"/>
+      <c r="AN2" s="278"/>
+      <c r="AO2" s="278"/>
+      <c r="AP2" s="278"/>
+      <c r="AQ2" s="278"/>
+      <c r="AR2" s="278"/>
+      <c r="AS2" s="278"/>
+      <c r="AT2" s="278"/>
+      <c r="AU2" s="278"/>
+      <c r="AV2" s="278"/>
+      <c r="AW2" s="278"/>
+      <c r="AX2" s="278"/>
+      <c r="AY2" s="278"/>
+      <c r="AZ2" s="278"/>
+      <c r="BA2" s="278"/>
+      <c r="BB2" s="278"/>
+      <c r="BC2" s="278"/>
+      <c r="BD2" s="278"/>
+      <c r="BE2" s="278"/>
+      <c r="BF2" s="278"/>
+      <c r="BG2" s="278"/>
+      <c r="BH2" s="278"/>
+      <c r="BI2" s="278"/>
+      <c r="BJ2" s="279"/>
+    </row>
+    <row r="3" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="277" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
-      <c r="O3" s="272"/>
-      <c r="P3" s="272"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="272"/>
-      <c r="S3" s="272"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="272"/>
-      <c r="AA3" s="272"/>
-      <c r="AB3" s="272"/>
-      <c r="AC3" s="272"/>
-      <c r="AD3" s="272"/>
-      <c r="AE3" s="272"/>
-      <c r="AF3" s="272"/>
-      <c r="AG3" s="272"/>
-      <c r="AH3" s="272"/>
-      <c r="AI3" s="272"/>
-      <c r="AJ3" s="272"/>
-      <c r="AK3" s="272"/>
-      <c r="AL3" s="272"/>
-      <c r="AM3" s="272"/>
-      <c r="AN3" s="272"/>
-      <c r="AO3" s="272"/>
-      <c r="AP3" s="272"/>
-      <c r="AQ3" s="272"/>
-      <c r="AR3" s="272"/>
-      <c r="AS3" s="272"/>
-      <c r="AT3" s="272"/>
-      <c r="AU3" s="272"/>
-      <c r="AV3" s="272"/>
-      <c r="AW3" s="272"/>
-      <c r="AX3" s="272"/>
-      <c r="AY3" s="272"/>
-      <c r="AZ3" s="272"/>
-      <c r="BA3" s="272"/>
-      <c r="BB3" s="272"/>
-      <c r="BC3" s="272"/>
-      <c r="BD3" s="272"/>
-      <c r="BE3" s="272"/>
-      <c r="BF3" s="272"/>
-      <c r="BG3" s="272"/>
-      <c r="BH3" s="272"/>
-      <c r="BI3" s="272"/>
-      <c r="BJ3" s="273"/>
-    </row>
-    <row r="4" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="277" t="s">
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="278"/>
+      <c r="K3" s="278"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="278"/>
+      <c r="Q3" s="278"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="278"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278"/>
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
+      <c r="Y3" s="278"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="278"/>
+      <c r="AB3" s="278"/>
+      <c r="AC3" s="278"/>
+      <c r="AD3" s="278"/>
+      <c r="AE3" s="278"/>
+      <c r="AF3" s="278"/>
+      <c r="AG3" s="278"/>
+      <c r="AH3" s="278"/>
+      <c r="AI3" s="278"/>
+      <c r="AJ3" s="278"/>
+      <c r="AK3" s="278"/>
+      <c r="AL3" s="278"/>
+      <c r="AM3" s="278"/>
+      <c r="AN3" s="278"/>
+      <c r="AO3" s="278"/>
+      <c r="AP3" s="278"/>
+      <c r="AQ3" s="278"/>
+      <c r="AR3" s="278"/>
+      <c r="AS3" s="278"/>
+      <c r="AT3" s="278"/>
+      <c r="AU3" s="278"/>
+      <c r="AV3" s="278"/>
+      <c r="AW3" s="278"/>
+      <c r="AX3" s="278"/>
+      <c r="AY3" s="278"/>
+      <c r="AZ3" s="278"/>
+      <c r="BA3" s="278"/>
+      <c r="BB3" s="278"/>
+      <c r="BC3" s="278"/>
+      <c r="BD3" s="278"/>
+      <c r="BE3" s="278"/>
+      <c r="BF3" s="278"/>
+      <c r="BG3" s="278"/>
+      <c r="BH3" s="278"/>
+      <c r="BI3" s="278"/>
+      <c r="BJ3" s="279"/>
+    </row>
+    <row r="4" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="246" t="s">
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247"/>
-      <c r="O4" s="247"/>
-      <c r="P4" s="247"/>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="247"/>
-      <c r="S4" s="247"/>
-      <c r="T4" s="248"/>
-      <c r="U4" s="246" t="s">
+      <c r="M4" s="253"/>
+      <c r="N4" s="253"/>
+      <c r="O4" s="253"/>
+      <c r="P4" s="253"/>
+      <c r="Q4" s="253"/>
+      <c r="R4" s="253"/>
+      <c r="S4" s="253"/>
+      <c r="T4" s="254"/>
+      <c r="U4" s="252" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="247"/>
-      <c r="W4" s="247"/>
-      <c r="X4" s="247"/>
-      <c r="Y4" s="247"/>
-      <c r="Z4" s="247"/>
-      <c r="AA4" s="247"/>
-      <c r="AB4" s="247"/>
-      <c r="AC4" s="247"/>
-      <c r="AD4" s="247"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="247"/>
-      <c r="AG4" s="247"/>
-      <c r="AH4" s="247"/>
-      <c r="AI4" s="248"/>
-      <c r="AJ4" s="246" t="s">
+      <c r="V4" s="253"/>
+      <c r="W4" s="253"/>
+      <c r="X4" s="253"/>
+      <c r="Y4" s="253"/>
+      <c r="Z4" s="253"/>
+      <c r="AA4" s="253"/>
+      <c r="AB4" s="253"/>
+      <c r="AC4" s="253"/>
+      <c r="AD4" s="253"/>
+      <c r="AE4" s="253"/>
+      <c r="AF4" s="253"/>
+      <c r="AG4" s="253"/>
+      <c r="AH4" s="253"/>
+      <c r="AI4" s="254"/>
+      <c r="AJ4" s="252" t="s">
         <v>43</v>
       </c>
-      <c r="AK4" s="247"/>
-      <c r="AL4" s="247"/>
-      <c r="AM4" s="247"/>
-      <c r="AN4" s="247"/>
-      <c r="AO4" s="247"/>
-      <c r="AP4" s="247"/>
-      <c r="AQ4" s="247"/>
-      <c r="AR4" s="247"/>
-      <c r="AS4" s="247"/>
-      <c r="AT4" s="247"/>
-      <c r="AU4" s="247"/>
-      <c r="AV4" s="274" t="s">
+      <c r="AK4" s="253"/>
+      <c r="AL4" s="253"/>
+      <c r="AM4" s="253"/>
+      <c r="AN4" s="253"/>
+      <c r="AO4" s="253"/>
+      <c r="AP4" s="253"/>
+      <c r="AQ4" s="253"/>
+      <c r="AR4" s="253"/>
+      <c r="AS4" s="253"/>
+      <c r="AT4" s="253"/>
+      <c r="AU4" s="253"/>
+      <c r="AV4" s="280" t="s">
         <v>45</v>
       </c>
-      <c r="AW4" s="275"/>
-      <c r="AX4" s="275"/>
-      <c r="AY4" s="275"/>
-      <c r="AZ4" s="275"/>
-      <c r="BA4" s="275"/>
-      <c r="BB4" s="275"/>
-      <c r="BC4" s="275"/>
-      <c r="BD4" s="275"/>
-      <c r="BE4" s="275"/>
-      <c r="BF4" s="275"/>
-      <c r="BG4" s="275"/>
-      <c r="BH4" s="275"/>
-      <c r="BI4" s="275"/>
-      <c r="BJ4" s="276"/>
-    </row>
-    <row r="5" spans="1:62" ht="309" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW4" s="281"/>
+      <c r="AX4" s="281"/>
+      <c r="AY4" s="281"/>
+      <c r="AZ4" s="281"/>
+      <c r="BA4" s="281"/>
+      <c r="BB4" s="281"/>
+      <c r="BC4" s="281"/>
+      <c r="BD4" s="281"/>
+      <c r="BE4" s="281"/>
+      <c r="BF4" s="281"/>
+      <c r="BG4" s="281"/>
+      <c r="BH4" s="281"/>
+      <c r="BI4" s="281"/>
+      <c r="BJ4" s="282"/>
+    </row>
+    <row r="5" spans="1:62" ht="309" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="63" t="str">
         <f>'Learning Objectives (LOs)'!E7</f>
         <v>Identify the Variables that are required in algorithm design.</v>
@@ -5990,7 +5996,7 @@
         <v>Analysis and problem solving</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="str">
         <f>Students!A3</f>
         <v>ID</v>
@@ -6235,7 +6241,7 @@
         <v>CT-3</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" s="97">
         <f>Students!A4</f>
         <v>1</v>
@@ -6430,7 +6436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" s="106">
         <f>Students!A5</f>
         <v>2</v>
@@ -6625,7 +6631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <f>Students!A6</f>
         <v>3</v>
@@ -6820,7 +6826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" s="106">
         <f>Students!A7</f>
         <v>4</v>
@@ -7015,7 +7021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <f>Students!A8</f>
         <v>5</v>
@@ -7210,7 +7216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" s="106">
         <f>Students!A9</f>
         <v>6</v>
@@ -7405,7 +7411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <f>Students!A10</f>
         <v>7</v>
@@ -7600,7 +7606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" s="106">
         <f>Students!A11</f>
         <v>8</v>
@@ -7795,7 +7801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <f>Students!A12</f>
         <v>9</v>
@@ -7988,7 +7994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" s="106">
         <f>Students!A13</f>
         <v>10</v>
@@ -8183,7 +8189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <f>Students!A14</f>
         <v>11</v>
@@ -8378,7 +8384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18" s="106">
         <f>Students!A15</f>
         <v>12</v>
@@ -8573,7 +8579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <f>Students!A16</f>
         <v>13</v>
@@ -8768,7 +8774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20" s="106">
         <f>Students!A17</f>
         <v>14</v>
@@ -8963,7 +8969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <f>Students!A18</f>
         <v>15</v>
@@ -9158,7 +9164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22" s="106">
         <f>Students!A19</f>
         <v>16</v>
@@ -9353,7 +9359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <f>Students!A20</f>
         <v>17</v>
@@ -9548,7 +9554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A24" s="106">
         <f>Students!A21</f>
         <v>18</v>
@@ -9743,7 +9749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <f>Students!A22</f>
         <v>19</v>
@@ -9938,7 +9944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A26" s="174">
         <f>Students!A23</f>
         <v>20</v>
@@ -10133,7 +10139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <f>Students!A24</f>
         <v>21</v>
@@ -10328,7 +10334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A28" s="174">
         <f>Students!A25</f>
         <v>22</v>
@@ -10523,7 +10529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <f>Students!A26</f>
         <v>24</v>
@@ -10718,7 +10724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A30" s="174">
         <f>Students!A27</f>
         <v>25</v>
@@ -10913,7 +10919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <f>Students!A28</f>
         <v>26</v>
@@ -11108,7 +11114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A32" s="174">
         <f>Students!A29</f>
         <v>27</v>
@@ -11303,7 +11309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
         <f>Students!A30</f>
         <v>28</v>
@@ -11498,7 +11504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="200">
         <f>Students!A31</f>
         <v>29</v>
@@ -11715,21 +11721,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="356.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="356.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="63" t="str">
         <f>'Learning Objectives (LOs)'!E7</f>
         <v>Identify the Variables that are required in algorithm design.</v>
@@ -11788,7 +11794,7 @@
         <v>Analysis and problem solving</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="75" t="str">
         <f>'Learning Objectives (LOs)'!D7</f>
         <v>LO-02.1</v>
@@ -11849,7 +11855,7 @@
         <v>CT-3</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="str">
         <f>Students!B4</f>
         <v>Boñal Bravo, Alberto</v>
@@ -11915,7 +11921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="93" t="str">
         <f>Students!B5</f>
         <v>Borrás Marqués, Lorena</v>
@@ -11981,7 +11987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="72" t="str">
         <f>Students!B6</f>
         <v>Cabaña Tissot, Marcos</v>
@@ -12047,7 +12053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="str">
         <f>Students!B7</f>
         <v>Canoves Femenia I Garcia, Joaquim</v>
@@ -12113,7 +12119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="72" t="str">
         <f>Students!B8</f>
         <v>Carmona Carrasquer, Lucas</v>
@@ -12179,7 +12185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="str">
         <f>Students!B9</f>
         <v>Casas Lorenzo, Javier</v>
@@ -12245,7 +12251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="72" t="str">
         <f>Students!B10</f>
         <v>Conejero Rodrígues, Jesús</v>
@@ -12311,7 +12317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="str">
         <f>Students!B11</f>
         <v>Davey, Ethan</v>
@@ -12377,7 +12383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="72" t="str">
         <f>Students!B12</f>
         <v>Durda, Jakub</v>
@@ -12443,7 +12449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="str">
         <f>Students!B13</f>
         <v>Fernández Palou, Isabel</v>
@@ -12509,7 +12515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="72" t="str">
         <f>Students!B14</f>
         <v>Fernández Silva, Pablo</v>
@@ -12575,7 +12581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="str">
         <f>Students!B15</f>
         <v>García Bernad, Jose Luis</v>
@@ -12641,7 +12647,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="72" t="str">
         <f>Students!B16</f>
         <v>Gascón Bononad, Carlos</v>
@@ -12707,7 +12713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="str">
         <f>Students!B17</f>
         <v>Gonzalez García, Alejandro</v>
@@ -12773,7 +12779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="72" t="str">
         <f>Students!B18</f>
         <v>Guillem Valles, Adrian</v>
@@ -12839,7 +12845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="str">
         <f>Students!B19</f>
         <v>Gutiérrez Jiménez, José</v>
@@ -12905,7 +12911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" s="72" t="str">
         <f>Students!B20</f>
         <v>Hrdina, Vojtech</v>
@@ -12971,7 +12977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="str">
         <f>Students!B21</f>
         <v>Leach Rodriguez, Ricardo</v>
@@ -13037,7 +13043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="72" t="str">
         <f>Students!B22</f>
         <v>Magallón Polo, Jorge</v>
@@ -13103,7 +13109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="20" t="str">
         <f>Students!B23</f>
         <v>Martín Núñez, Raúl</v>
@@ -13169,7 +13175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="72" t="str">
         <f>Students!B24</f>
         <v>Mohammad Mohammad, Jahanzaib</v>
@@ -13235,7 +13241,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="str">
         <f>Students!B25</f>
         <v>Morellà Campos, Alvaro</v>
@@ -13301,7 +13307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="72" t="str">
         <f>Students!B26</f>
         <v>Pergens, Richard</v>
@@ -13367,7 +13373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="20" t="str">
         <f>Students!B27</f>
         <v>Prieto Calabuig, Tomas</v>
@@ -13433,7 +13439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" s="72" t="str">
         <f>Students!B28</f>
         <v>Ramón Alamán, David</v>
@@ -13499,7 +13505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" s="20" t="str">
         <f>Students!B29</f>
         <v>Sotos Llopis, Salma</v>
@@ -13565,7 +13571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="72" t="str">
         <f>Students!B30</f>
         <v>Sultanbékova, Galimá</v>
@@ -13631,7 +13637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="132" t="str">
         <f>Students!B31</f>
         <v>Unal, Ogulcan</v>
@@ -13697,8 +13703,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="181" t="s">
         <v>119</v>
       </c>
@@ -13773,199 +13779,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:AV3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" customWidth="1"/>
-    <col min="26" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="7.5703125" customWidth="1"/>
-    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="39" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5546875" customWidth="1"/>
+    <col min="26" max="27" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="7.5546875" customWidth="1"/>
+    <col min="32" max="32" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="39" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="271" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="272"/>
-      <c r="O2" s="272"/>
-      <c r="P2" s="272"/>
-      <c r="Q2" s="272"/>
-      <c r="R2" s="272"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="272"/>
-      <c r="U2" s="272"/>
-      <c r="V2" s="272"/>
-      <c r="W2" s="272"/>
-      <c r="X2" s="272"/>
-      <c r="Y2" s="272"/>
-      <c r="Z2" s="272"/>
-      <c r="AA2" s="272"/>
-      <c r="AB2" s="272"/>
-      <c r="AC2" s="272"/>
-      <c r="AD2" s="272"/>
-      <c r="AE2" s="272"/>
-      <c r="AF2" s="272"/>
-      <c r="AG2" s="272"/>
-      <c r="AH2" s="272"/>
-      <c r="AI2" s="272"/>
-      <c r="AJ2" s="272"/>
-      <c r="AK2" s="272"/>
-      <c r="AL2" s="272"/>
-      <c r="AM2" s="272"/>
-      <c r="AN2" s="272"/>
-      <c r="AO2" s="272"/>
-      <c r="AP2" s="272"/>
-      <c r="AQ2" s="272"/>
-      <c r="AR2" s="272"/>
-      <c r="AS2" s="272"/>
-      <c r="AT2" s="272"/>
-      <c r="AU2" s="272"/>
-      <c r="AV2" s="272"/>
-    </row>
-    <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="271" t="s">
+    <row r="1" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="277" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
+      <c r="R2" s="278"/>
+      <c r="S2" s="278"/>
+      <c r="T2" s="278"/>
+      <c r="U2" s="278"/>
+      <c r="V2" s="278"/>
+      <c r="W2" s="278"/>
+      <c r="X2" s="278"/>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="278"/>
+      <c r="AA2" s="278"/>
+      <c r="AB2" s="278"/>
+      <c r="AC2" s="278"/>
+      <c r="AD2" s="278"/>
+      <c r="AE2" s="278"/>
+      <c r="AF2" s="278"/>
+      <c r="AG2" s="278"/>
+      <c r="AH2" s="278"/>
+      <c r="AI2" s="278"/>
+      <c r="AJ2" s="278"/>
+      <c r="AK2" s="278"/>
+      <c r="AL2" s="278"/>
+      <c r="AM2" s="278"/>
+      <c r="AN2" s="278"/>
+      <c r="AO2" s="278"/>
+      <c r="AP2" s="278"/>
+      <c r="AQ2" s="278"/>
+      <c r="AR2" s="278"/>
+      <c r="AS2" s="278"/>
+      <c r="AT2" s="278"/>
+      <c r="AU2" s="278"/>
+      <c r="AV2" s="278"/>
+    </row>
+    <row r="3" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="277" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
-      <c r="O3" s="272"/>
-      <c r="P3" s="272"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="272"/>
-      <c r="S3" s="272"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="272"/>
-      <c r="AA3" s="272"/>
-      <c r="AB3" s="272"/>
-      <c r="AC3" s="272"/>
-      <c r="AD3" s="272"/>
-      <c r="AE3" s="272"/>
-      <c r="AF3" s="272"/>
-      <c r="AG3" s="272"/>
-      <c r="AH3" s="272"/>
-      <c r="AI3" s="272"/>
-      <c r="AJ3" s="272"/>
-      <c r="AK3" s="272"/>
-      <c r="AL3" s="272"/>
-      <c r="AM3" s="272"/>
-      <c r="AN3" s="272"/>
-      <c r="AO3" s="272"/>
-      <c r="AP3" s="272"/>
-      <c r="AQ3" s="272"/>
-      <c r="AR3" s="272"/>
-      <c r="AS3" s="272"/>
-      <c r="AT3" s="272"/>
-      <c r="AU3" s="272"/>
-      <c r="AV3" s="272"/>
-    </row>
-    <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="277" t="s">
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="278"/>
+      <c r="K3" s="278"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="278"/>
+      <c r="Q3" s="278"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="278"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278"/>
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
+      <c r="Y3" s="278"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="278"/>
+      <c r="AB3" s="278"/>
+      <c r="AC3" s="278"/>
+      <c r="AD3" s="278"/>
+      <c r="AE3" s="278"/>
+      <c r="AF3" s="278"/>
+      <c r="AG3" s="278"/>
+      <c r="AH3" s="278"/>
+      <c r="AI3" s="278"/>
+      <c r="AJ3" s="278"/>
+      <c r="AK3" s="278"/>
+      <c r="AL3" s="278"/>
+      <c r="AM3" s="278"/>
+      <c r="AN3" s="278"/>
+      <c r="AO3" s="278"/>
+      <c r="AP3" s="278"/>
+      <c r="AQ3" s="278"/>
+      <c r="AR3" s="278"/>
+      <c r="AS3" s="278"/>
+      <c r="AT3" s="278"/>
+      <c r="AU3" s="278"/>
+      <c r="AV3" s="278"/>
+    </row>
+    <row r="4" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="246" t="s">
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247"/>
-      <c r="O4" s="247"/>
-      <c r="P4" s="247"/>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="246" t="s">
+      <c r="M4" s="253"/>
+      <c r="N4" s="253"/>
+      <c r="O4" s="253"/>
+      <c r="P4" s="253"/>
+      <c r="Q4" s="253"/>
+      <c r="R4" s="252" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="247"/>
-      <c r="T4" s="247"/>
-      <c r="U4" s="247"/>
-      <c r="V4" s="247"/>
-      <c r="W4" s="247"/>
-      <c r="X4" s="247"/>
-      <c r="Y4" s="247"/>
-      <c r="Z4" s="247"/>
-      <c r="AA4" s="247"/>
-      <c r="AB4" s="247"/>
-      <c r="AC4" s="247"/>
-      <c r="AD4" s="247"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="247"/>
-      <c r="AG4" s="246" t="s">
+      <c r="S4" s="253"/>
+      <c r="T4" s="253"/>
+      <c r="U4" s="253"/>
+      <c r="V4" s="253"/>
+      <c r="W4" s="253"/>
+      <c r="X4" s="253"/>
+      <c r="Y4" s="253"/>
+      <c r="Z4" s="253"/>
+      <c r="AA4" s="253"/>
+      <c r="AB4" s="253"/>
+      <c r="AC4" s="253"/>
+      <c r="AD4" s="253"/>
+      <c r="AE4" s="253"/>
+      <c r="AF4" s="253"/>
+      <c r="AG4" s="252" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="247"/>
-      <c r="AI4" s="247"/>
-      <c r="AJ4" s="247"/>
-      <c r="AK4" s="247"/>
-      <c r="AL4" s="247"/>
-      <c r="AM4" s="247"/>
-      <c r="AN4" s="247"/>
-      <c r="AO4" s="247"/>
-      <c r="AP4" s="247"/>
-      <c r="AQ4" s="274" t="s">
+      <c r="AH4" s="253"/>
+      <c r="AI4" s="253"/>
+      <c r="AJ4" s="253"/>
+      <c r="AK4" s="253"/>
+      <c r="AL4" s="253"/>
+      <c r="AM4" s="253"/>
+      <c r="AN4" s="253"/>
+      <c r="AO4" s="253"/>
+      <c r="AP4" s="253"/>
+      <c r="AQ4" s="280" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="275"/>
-      <c r="AS4" s="275"/>
-      <c r="AT4" s="275"/>
-      <c r="AU4" s="275"/>
-      <c r="AV4" s="276"/>
-    </row>
-    <row r="5" spans="1:48" ht="309" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR4" s="281"/>
+      <c r="AS4" s="281"/>
+      <c r="AT4" s="281"/>
+      <c r="AU4" s="281"/>
+      <c r="AV4" s="282"/>
+    </row>
+    <row r="5" spans="1:48" ht="309" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="63" t="str">
         <f>'Learning Objectives (LOs)'!E7</f>
         <v>Identify the Variables that are required in algorithm design.</v>
@@ -14136,7 +14142,7 @@
         <v>Analysis and problem solving</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="str">
         <f>Students!A3</f>
         <v>ID</v>
@@ -14325,7 +14331,7 @@
         <v>CT-3</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="97">
         <f>Students!A4</f>
         <v>1</v>
@@ -14478,7 +14484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="106">
         <f>Students!A5</f>
         <v>2</v>
@@ -14631,7 +14637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <f>Students!A6</f>
         <v>3</v>
@@ -14784,7 +14790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="106">
         <f>Students!A7</f>
         <v>4</v>
@@ -14937,7 +14943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <f>Students!A8</f>
         <v>5</v>
@@ -15090,7 +15096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" s="106">
         <f>Students!A9</f>
         <v>6</v>
@@ -15243,7 +15249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <f>Students!A10</f>
         <v>7</v>
@@ -15396,7 +15402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="106">
         <f>Students!A11</f>
         <v>8</v>
@@ -15549,7 +15555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <f>Students!A12</f>
         <v>9</v>
@@ -15702,7 +15708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="106">
         <f>Students!A13</f>
         <v>10</v>
@@ -15855,7 +15861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <f>Students!A14</f>
         <v>11</v>
@@ -16008,7 +16014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A18" s="106">
         <f>Students!A15</f>
         <v>12</v>
@@ -16161,7 +16167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <f>Students!A16</f>
         <v>13</v>
@@ -16314,7 +16320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A20" s="106">
         <f>Students!A17</f>
         <v>14</v>
@@ -16467,7 +16473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <f>Students!A18</f>
         <v>15</v>
@@ -16620,7 +16626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A22" s="106">
         <f>Students!A19</f>
         <v>16</v>
@@ -16773,7 +16779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <f>Students!A20</f>
         <v>17</v>
@@ -16926,7 +16932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24" s="106">
         <f>Students!A21</f>
         <v>18</v>
@@ -17079,7 +17085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <f>Students!A22</f>
         <v>19</v>
@@ -17232,7 +17238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A26" s="106">
         <f>Students!A23</f>
         <v>20</v>
@@ -17385,7 +17391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <f>Students!A24</f>
         <v>21</v>
@@ -17538,7 +17544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28" s="106">
         <f>Students!A25</f>
         <v>22</v>
@@ -17691,7 +17697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <f>Students!A26</f>
         <v>24</v>
@@ -17844,7 +17850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A30" s="106">
         <f>Students!A27</f>
         <v>25</v>
@@ -17997,7 +18003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <f>Students!A28</f>
         <v>26</v>
@@ -18150,7 +18156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A32" s="106">
         <f>Students!A29</f>
         <v>27</v>
@@ -18303,7 +18309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="184">
         <f>Students!A30</f>
         <v>28</v>
@@ -18456,7 +18462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:48" s="193" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" s="193" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="200">
         <f>Students!A31</f>
         <v>29</v>
@@ -18634,16 +18640,16 @@
       <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" customWidth="1"/>
+    <col min="21" max="21" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" ht="376.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:21" ht="376.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="63" t="str">
         <f>'Learning Objectives (LOs)'!E7</f>
         <v>Identify the Variables that are required in algorithm design.</v>
@@ -18718,7 +18724,7 @@
         <v>Analysis and problem solving</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="88" t="str">
         <f>'Learning Objectives (LOs)'!D7</f>
         <v>LO-02.1</v>
@@ -18795,7 +18801,7 @@
         <v>CT-3</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="71" t="str">
         <f>Students!B4</f>
         <v>Boñal Bravo, Alberto</v>
@@ -18877,7 +18883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="93" t="str">
         <f>Students!B5</f>
         <v>Borrás Marqués, Lorena</v>
@@ -18959,7 +18965,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="72" t="str">
         <f>Students!B6</f>
         <v>Cabaña Tissot, Marcos</v>
@@ -19041,7 +19047,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="str">
         <f>Students!B7</f>
         <v>Canoves Femenia I Garcia, Joaquim</v>
@@ -19123,7 +19129,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="72" t="str">
         <f>Students!B8</f>
         <v>Carmona Carrasquer, Lucas</v>
@@ -19205,7 +19211,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="str">
         <f>Students!B9</f>
         <v>Casas Lorenzo, Javier</v>
@@ -19287,7 +19293,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="72" t="str">
         <f>Students!B10</f>
         <v>Conejero Rodrígues, Jesús</v>
@@ -19369,7 +19375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="str">
         <f>Students!B11</f>
         <v>Davey, Ethan</v>
@@ -19451,7 +19457,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="72" t="str">
         <f>Students!B12</f>
         <v>Durda, Jakub</v>
@@ -19533,7 +19539,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="str">
         <f>Students!B13</f>
         <v>Fernández Palou, Isabel</v>
@@ -19615,7 +19621,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="72" t="str">
         <f>Students!B14</f>
         <v>Fernández Silva, Pablo</v>
@@ -19697,7 +19703,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="str">
         <f>Students!B15</f>
         <v>García Bernad, Jose Luis</v>
@@ -19779,7 +19785,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="72" t="str">
         <f>Students!B16</f>
         <v>Gascón Bononad, Carlos</v>
@@ -19861,7 +19867,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="str">
         <f>Students!B17</f>
         <v>Gonzalez García, Alejandro</v>
@@ -19943,7 +19949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="72" t="str">
         <f>Students!B18</f>
         <v>Guillem Valles, Adrian</v>
@@ -20025,7 +20031,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="str">
         <f>Students!B19</f>
         <v>Gutiérrez Jiménez, José</v>
@@ -20107,7 +20113,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="72" t="str">
         <f>Students!B20</f>
         <v>Hrdina, Vojtech</v>
@@ -20189,7 +20195,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="str">
         <f>Students!B21</f>
         <v>Leach Rodriguez, Ricardo</v>
@@ -20271,7 +20277,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="72" t="str">
         <f>Students!B22</f>
         <v>Magallón Polo, Jorge</v>
@@ -20353,7 +20359,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" s="20" t="str">
         <f>Students!B23</f>
         <v>Martín Núñez, Raúl</v>
@@ -20435,7 +20441,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B24" s="72" t="str">
         <f>Students!B24</f>
         <v>Mohammad Mohammad, Jahanzaib</v>
@@ -20517,7 +20523,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="str">
         <f>Students!B25</f>
         <v>Morellà Campos, Alvaro</v>
@@ -20599,7 +20605,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" s="72" t="str">
         <f>Students!B26</f>
         <v>Pergens, Richard</v>
@@ -20681,7 +20687,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="20" t="str">
         <f>Students!B27</f>
         <v>Prieto Calabuig, Tomas</v>
@@ -20763,7 +20769,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="72" t="str">
         <f>Students!B28</f>
         <v>Ramón Alamán, David</v>
@@ -20845,7 +20851,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="20" t="str">
         <f>Students!B29</f>
         <v>Sotos Llopis, Salma</v>
@@ -20927,7 +20933,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="72" t="str">
         <f>Students!B30</f>
         <v>Sultanbékova, Galimá</v>
@@ -21009,7 +21015,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="31" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="132" t="str">
         <f>Students!B31</f>
         <v>Unal, Ogulcan</v>
@@ -21091,10 +21097,10 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="181" t="s">
         <v>119</v>
       </c>
@@ -21185,199 +21191,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:AV3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" customWidth="1"/>
-    <col min="26" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="7.5703125" customWidth="1"/>
-    <col min="32" max="32" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="39" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5546875" customWidth="1"/>
+    <col min="26" max="27" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="7.5546875" customWidth="1"/>
+    <col min="32" max="32" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="39" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="271" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="272"/>
-      <c r="M2" s="272"/>
-      <c r="N2" s="272"/>
-      <c r="O2" s="272"/>
-      <c r="P2" s="272"/>
-      <c r="Q2" s="272"/>
-      <c r="R2" s="272"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="272"/>
-      <c r="U2" s="272"/>
-      <c r="V2" s="272"/>
-      <c r="W2" s="272"/>
-      <c r="X2" s="272"/>
-      <c r="Y2" s="272"/>
-      <c r="Z2" s="272"/>
-      <c r="AA2" s="272"/>
-      <c r="AB2" s="272"/>
-      <c r="AC2" s="272"/>
-      <c r="AD2" s="272"/>
-      <c r="AE2" s="272"/>
-      <c r="AF2" s="272"/>
-      <c r="AG2" s="272"/>
-      <c r="AH2" s="272"/>
-      <c r="AI2" s="272"/>
-      <c r="AJ2" s="272"/>
-      <c r="AK2" s="272"/>
-      <c r="AL2" s="272"/>
-      <c r="AM2" s="272"/>
-      <c r="AN2" s="272"/>
-      <c r="AO2" s="272"/>
-      <c r="AP2" s="272"/>
-      <c r="AQ2" s="272"/>
-      <c r="AR2" s="272"/>
-      <c r="AS2" s="272"/>
-      <c r="AT2" s="272"/>
-      <c r="AU2" s="272"/>
-      <c r="AV2" s="272"/>
-    </row>
-    <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="271" t="s">
+    <row r="1" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="277" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
+      <c r="R2" s="278"/>
+      <c r="S2" s="278"/>
+      <c r="T2" s="278"/>
+      <c r="U2" s="278"/>
+      <c r="V2" s="278"/>
+      <c r="W2" s="278"/>
+      <c r="X2" s="278"/>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="278"/>
+      <c r="AA2" s="278"/>
+      <c r="AB2" s="278"/>
+      <c r="AC2" s="278"/>
+      <c r="AD2" s="278"/>
+      <c r="AE2" s="278"/>
+      <c r="AF2" s="278"/>
+      <c r="AG2" s="278"/>
+      <c r="AH2" s="278"/>
+      <c r="AI2" s="278"/>
+      <c r="AJ2" s="278"/>
+      <c r="AK2" s="278"/>
+      <c r="AL2" s="278"/>
+      <c r="AM2" s="278"/>
+      <c r="AN2" s="278"/>
+      <c r="AO2" s="278"/>
+      <c r="AP2" s="278"/>
+      <c r="AQ2" s="278"/>
+      <c r="AR2" s="278"/>
+      <c r="AS2" s="278"/>
+      <c r="AT2" s="278"/>
+      <c r="AU2" s="278"/>
+      <c r="AV2" s="278"/>
+    </row>
+    <row r="3" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="277" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="272"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="272"/>
-      <c r="O3" s="272"/>
-      <c r="P3" s="272"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="272"/>
-      <c r="S3" s="272"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="272"/>
-      <c r="AA3" s="272"/>
-      <c r="AB3" s="272"/>
-      <c r="AC3" s="272"/>
-      <c r="AD3" s="272"/>
-      <c r="AE3" s="272"/>
-      <c r="AF3" s="272"/>
-      <c r="AG3" s="272"/>
-      <c r="AH3" s="272"/>
-      <c r="AI3" s="272"/>
-      <c r="AJ3" s="272"/>
-      <c r="AK3" s="272"/>
-      <c r="AL3" s="272"/>
-      <c r="AM3" s="272"/>
-      <c r="AN3" s="272"/>
-      <c r="AO3" s="272"/>
-      <c r="AP3" s="272"/>
-      <c r="AQ3" s="272"/>
-      <c r="AR3" s="272"/>
-      <c r="AS3" s="272"/>
-      <c r="AT3" s="272"/>
-      <c r="AU3" s="272"/>
-      <c r="AV3" s="272"/>
-    </row>
-    <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="277" t="s">
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="278"/>
+      <c r="K3" s="278"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
+      <c r="O3" s="278"/>
+      <c r="P3" s="278"/>
+      <c r="Q3" s="278"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="278"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278"/>
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
+      <c r="Y3" s="278"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="278"/>
+      <c r="AB3" s="278"/>
+      <c r="AC3" s="278"/>
+      <c r="AD3" s="278"/>
+      <c r="AE3" s="278"/>
+      <c r="AF3" s="278"/>
+      <c r="AG3" s="278"/>
+      <c r="AH3" s="278"/>
+      <c r="AI3" s="278"/>
+      <c r="AJ3" s="278"/>
+      <c r="AK3" s="278"/>
+      <c r="AL3" s="278"/>
+      <c r="AM3" s="278"/>
+      <c r="AN3" s="278"/>
+      <c r="AO3" s="278"/>
+      <c r="AP3" s="278"/>
+      <c r="AQ3" s="278"/>
+      <c r="AR3" s="278"/>
+      <c r="AS3" s="278"/>
+      <c r="AT3" s="278"/>
+      <c r="AU3" s="278"/>
+      <c r="AV3" s="278"/>
+    </row>
+    <row r="4" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="278"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="246" t="s">
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="247"/>
-      <c r="N4" s="247"/>
-      <c r="O4" s="247"/>
-      <c r="P4" s="247"/>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="246" t="s">
+      <c r="M4" s="253"/>
+      <c r="N4" s="253"/>
+      <c r="O4" s="253"/>
+      <c r="P4" s="253"/>
+      <c r="Q4" s="253"/>
+      <c r="R4" s="252" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="247"/>
-      <c r="T4" s="247"/>
-      <c r="U4" s="247"/>
-      <c r="V4" s="247"/>
-      <c r="W4" s="247"/>
-      <c r="X4" s="247"/>
-      <c r="Y4" s="247"/>
-      <c r="Z4" s="247"/>
-      <c r="AA4" s="247"/>
-      <c r="AB4" s="247"/>
-      <c r="AC4" s="247"/>
-      <c r="AD4" s="247"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="247"/>
-      <c r="AG4" s="246" t="s">
+      <c r="S4" s="253"/>
+      <c r="T4" s="253"/>
+      <c r="U4" s="253"/>
+      <c r="V4" s="253"/>
+      <c r="W4" s="253"/>
+      <c r="X4" s="253"/>
+      <c r="Y4" s="253"/>
+      <c r="Z4" s="253"/>
+      <c r="AA4" s="253"/>
+      <c r="AB4" s="253"/>
+      <c r="AC4" s="253"/>
+      <c r="AD4" s="253"/>
+      <c r="AE4" s="253"/>
+      <c r="AF4" s="253"/>
+      <c r="AG4" s="252" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="247"/>
-      <c r="AI4" s="247"/>
-      <c r="AJ4" s="247"/>
-      <c r="AK4" s="247"/>
-      <c r="AL4" s="247"/>
-      <c r="AM4" s="247"/>
-      <c r="AN4" s="247"/>
-      <c r="AO4" s="247"/>
-      <c r="AP4" s="247"/>
-      <c r="AQ4" s="274" t="s">
+      <c r="AH4" s="253"/>
+      <c r="AI4" s="253"/>
+      <c r="AJ4" s="253"/>
+      <c r="AK4" s="253"/>
+      <c r="AL4" s="253"/>
+      <c r="AM4" s="253"/>
+      <c r="AN4" s="253"/>
+      <c r="AO4" s="253"/>
+      <c r="AP4" s="253"/>
+      <c r="AQ4" s="280" t="s">
         <v>45</v>
       </c>
-      <c r="AR4" s="275"/>
-      <c r="AS4" s="275"/>
-      <c r="AT4" s="275"/>
-      <c r="AU4" s="275"/>
-      <c r="AV4" s="276"/>
-    </row>
-    <row r="5" spans="1:48" ht="309" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR4" s="281"/>
+      <c r="AS4" s="281"/>
+      <c r="AT4" s="281"/>
+      <c r="AU4" s="281"/>
+      <c r="AV4" s="282"/>
+    </row>
+    <row r="5" spans="1:48" ht="309" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="63"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
@@ -21425,7 +21431,7 @@
       <c r="AU5" s="224"/>
       <c r="AV5" s="66"/>
     </row>
-    <row r="6" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="48" t="str">
         <f>Students!A3</f>
         <v>ID</v>
@@ -21491,7 +21497,7 @@
       </c>
       <c r="AV6" s="87"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="97">
         <f>Students!A4</f>
         <v>1</v>
@@ -21562,7 +21568,7 @@
       </c>
       <c r="AV7" s="70"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="106">
         <f>Students!A5</f>
         <v>2</v>
@@ -21633,7 +21639,7 @@
       </c>
       <c r="AV8" s="172"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <f>Students!A6</f>
         <v>3</v>
@@ -21704,7 +21710,7 @@
       </c>
       <c r="AV9" s="27"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="106">
         <f>Students!A7</f>
         <v>4</v>
@@ -21775,7 +21781,7 @@
       </c>
       <c r="AV10" s="172"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <f>Students!A8</f>
         <v>5</v>
@@ -21846,7 +21852,7 @@
       </c>
       <c r="AV11" s="27"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" s="106">
         <f>Students!A9</f>
         <v>6</v>
@@ -21917,7 +21923,7 @@
       </c>
       <c r="AV12" s="172"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <f>Students!A10</f>
         <v>7</v>
@@ -21988,7 +21994,7 @@
       </c>
       <c r="AV13" s="27"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="106">
         <f>Students!A11</f>
         <v>8</v>
@@ -22059,7 +22065,7 @@
       </c>
       <c r="AV14" s="92"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <f>Students!A12</f>
         <v>9</v>
@@ -22130,7 +22136,7 @@
       </c>
       <c r="AV15" s="27"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16" s="106">
         <f>Students!A13</f>
         <v>10</v>
@@ -22201,7 +22207,7 @@
       </c>
       <c r="AV16" s="92"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <f>Students!A14</f>
         <v>11</v>
@@ -22272,7 +22278,7 @@
       </c>
       <c r="AV17" s="27"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A18" s="106">
         <f>Students!A15</f>
         <v>12</v>
@@ -22343,7 +22349,7 @@
       </c>
       <c r="AV18" s="92"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <f>Students!A16</f>
         <v>13</v>
@@ -22414,7 +22420,7 @@
       </c>
       <c r="AV19" s="27"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A20" s="106">
         <f>Students!A17</f>
         <v>14</v>
@@ -22485,7 +22491,7 @@
       </c>
       <c r="AV20" s="92"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <f>Students!A18</f>
         <v>15</v>
@@ -22556,7 +22562,7 @@
       </c>
       <c r="AV21" s="27"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A22" s="106">
         <f>Students!A19</f>
         <v>16</v>
@@ -22627,7 +22633,7 @@
       </c>
       <c r="AV22" s="92"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <f>Students!A20</f>
         <v>17</v>
@@ -22698,7 +22704,7 @@
       </c>
       <c r="AV23" s="27"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24" s="106">
         <f>Students!A21</f>
         <v>18</v>
@@ -22769,7 +22775,7 @@
       </c>
       <c r="AV24" s="92"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <f>Students!A22</f>
         <v>19</v>
@@ -22840,7 +22846,7 @@
       </c>
       <c r="AV25" s="27"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A26" s="106">
         <f>Students!A23</f>
         <v>20</v>
@@ -22911,7 +22917,7 @@
       </c>
       <c r="AV26" s="92"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <f>Students!A24</f>
         <v>21</v>
@@ -22982,7 +22988,7 @@
       </c>
       <c r="AV27" s="27"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28" s="106">
         <f>Students!A25</f>
         <v>22</v>
@@ -23053,7 +23059,7 @@
       </c>
       <c r="AV28" s="92"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <f>Students!A26</f>
         <v>24</v>
@@ -23124,7 +23130,7 @@
       </c>
       <c r="AV29" s="27"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A30" s="106">
         <f>Students!A27</f>
         <v>25</v>
@@ -23195,7 +23201,7 @@
       </c>
       <c r="AV30" s="92"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <f>Students!A28</f>
         <v>26</v>
@@ -23266,7 +23272,7 @@
       </c>
       <c r="AV31" s="27"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A32" s="106">
         <f>Students!A29</f>
         <v>27</v>
@@ -23337,7 +23343,7 @@
       </c>
       <c r="AV32" s="92"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="184">
         <f>Students!A30</f>
         <v>28</v>
@@ -23408,7 +23414,7 @@
       </c>
       <c r="AV33" s="188"/>
     </row>
-    <row r="34" spans="1:48" s="193" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" s="193" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="200">
         <f>Students!A31</f>
         <v>29</v>
